--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2907283.294956793</v>
+        <v>3011517.00335024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541707.173566898</v>
+        <v>8550620.064818505</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.0340619339588</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>266.9098187714002</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>264.1756603178915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.0313513213036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.40068481261605</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>238.3262268437761</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>27.44338207141872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>173.0270907656996</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>70.36717413710706</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.09957336113937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>39.02279286010599</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>69.88414079650717</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417137</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,13 +1426,13 @@
         <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.2342243404111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>73.93222849083776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>237.6564710034618</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174157</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>32.26041896250234</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>52.91369288257752</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>179.2665220510463</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>158.823050716038</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>135.3135037226517</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.0491831632156</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>41.74133133758713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>75.00788511618059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>45.16086499484859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>743.5029151397866</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218333</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218333</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810547</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052364</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609166</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136261</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520484</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.80692879432</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450749</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180635</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919555</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943743</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635987</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686057</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064732</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986283</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978975</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.70402429164</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513956</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.50339306841</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486464</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962567</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609166</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201684</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218333</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791188</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.621931827995</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.181730276491</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760398</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581904</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088491</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846019</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846019</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415545</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415545</v>
+        <v>1044.040131453612</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415545</v>
+        <v>1044.040131453612</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.280305378585</v>
+        <v>754.622961416651</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.290754480567</v>
+        <v>526.6334105186337</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.7237329438971</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605787</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.300932605787</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.300932605787</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1175.300932605787</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>764.3150278161791</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2425776611755</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520485</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520485</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176914</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.5058629068</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.04010464572</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669908</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>674.4145879000962</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C7" t="n">
-        <v>505.4784049721893</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D7" t="n">
-        <v>505.4784049721893</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>505.4784049721893</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791188</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764911</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760399</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581904</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915318</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040961</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835074</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981135</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000962</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y7" t="n">
-        <v>674.4145879000962</v>
+        <v>795.2798542473295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136263</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520485</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>3048.550120319547</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2717.487232975976</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180637</v>
+        <v>2364.718577705862</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919557</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218336</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218336</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1606.36124418789</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1317.258377313534</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1062.573889107647</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>773.1567190706866</v>
+        <v>899.4646521960087</v>
       </c>
       <c r="X10" t="n">
-        <v>545.1671681726692</v>
+        <v>899.4646521960087</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.1671681726692</v>
+        <v>678.6720730524786</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579756</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755825</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776722</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>250.5823850776722</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3403484614387</v>
+        <v>984.9192356072725</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4041655335318</v>
+        <v>815.9830526793656</v>
       </c>
       <c r="D19" t="n">
-        <v>664.287526121196</v>
+        <v>665.8664132670299</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>517.9533196846368</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>371.0633721867264</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>2796.247839534409</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>2627.311656606502</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>2627.311656606502</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>2479.398563024109</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>2479.398563024109</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>2479.398563024109</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4259.855319304846</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>3970.780092649044</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3716.095604443157</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3426.678434406196</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>3198.688883508179</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>2977.896304364649</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5968,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>1964.511902868375</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>135.9796239950296</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3260.450525729772</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>3091.514342801865</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>2941.39770338953</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4145.565608807447</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3890.88112060156</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3890.88112060156</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3662.891569703542</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>3442.098990560012</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.59775584152624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.3624843553861</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.48117232036623</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>112.6104454096913</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>38.13892827624196</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>21.00892946589931</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>31.93331737597609</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.1352912260285279</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>98.55338150863676</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1765892730635</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.4237883572462</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748086.7523530399</v>
+        <v>756999.6436046461</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.609736506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.801269209172961e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312046</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312039</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312033</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768774</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768774</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768776</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768801</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26482,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-827927.3609974646</v>
+        <v>-647734.4620383455</v>
       </c>
       <c r="C6" t="n">
-        <v>500817.3847301269</v>
+        <v>297378.6431180214</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301274</v>
+        <v>500817.3847301272</v>
       </c>
       <c r="E6" t="n">
-        <v>249592.4737834739</v>
+        <v>249592.4737834745</v>
       </c>
       <c r="F6" t="n">
+        <v>575004.9355908292</v>
+      </c>
+      <c r="G6" t="n">
+        <v>575004.9355908298</v>
+      </c>
+      <c r="H6" t="n">
+        <v>575004.93559083</v>
+      </c>
+      <c r="I6" t="n">
         <v>575004.9355908295</v>
       </c>
-      <c r="G6" t="n">
-        <v>575004.9355908299</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>407399.7577808474</v>
+      </c>
+      <c r="K6" t="n">
+        <v>525894.8428847754</v>
+      </c>
+      <c r="L6" t="n">
         <v>575004.9355908298</v>
       </c>
-      <c r="I6" t="n">
-        <v>575004.9355908298</v>
-      </c>
-      <c r="J6" t="n">
-        <v>357473.7331935521</v>
-      </c>
-      <c r="K6" t="n">
-        <v>575004.9355908299</v>
-      </c>
-      <c r="L6" t="n">
-        <v>575004.9355908297</v>
-      </c>
       <c r="M6" t="n">
-        <v>489949.9076553175</v>
+        <v>489949.9076553177</v>
       </c>
       <c r="N6" t="n">
         <v>575004.9355908299</v>
       </c>
       <c r="O6" t="n">
-        <v>575004.9355908298</v>
+        <v>575004.93559083</v>
       </c>
       <c r="P6" t="n">
-        <v>575004.9355908292</v>
+        <v>575004.93559083</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466201e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.751586511466201e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022916</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022916</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022916</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022916</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.6997797295218</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>115.0205513008616</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>22.05149380330914</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.55330203079123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>349.2823568080669</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>56.28153754354437</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>117.9776659515125</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>45.55756258639516</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>180.6279978217949</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1383652949142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>180.5261564160632</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>216.6388575400838</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.740090779818373e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28141,16 +28143,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.751586511466191e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.751586511466201e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.751586511466201e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.38714966515164e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.392718322726348e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>395.1848490935915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551095</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>579.5299594447137</v>
+        <v>531.8166820790237</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O21" t="n">
-        <v>512.9101366533182</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N33" t="n">
-        <v>375.1407109807897</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>253.0508151715732</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075054</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>440.9755796648395</v>
+        <v>393.2623022991496</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O21" t="n">
-        <v>370.3138922088737</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N33" t="n">
-        <v>243.7989988974564</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3011517.00335024</v>
+        <v>3007462.877590861</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8550620.064818505</v>
+        <v>8550620.064818503</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.996196533653728</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>266.9098187714002</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>264.1756603178915</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>347.4416819816021</v>
       </c>
       <c r="D5" t="n">
-        <v>5.40068481261605</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,7 +1110,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>85.65289841788693</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.0270907656996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>70.36717413710706</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>69.88414079650717</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417137</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444161</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>237.6564710034618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174157</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.91369288257752</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T22" t="n">
-        <v>179.2665220510463</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.823050716038</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725117</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0491831632156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>60.78102717027877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.768613746537</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.768613746537</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="D2" t="n">
-        <v>743.5029151397866</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8408313751036</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.040131453612</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1044.040131453612</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>754.622961416651</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>526.6334105186337</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.8408313751036</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1337.493512032386</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X7" t="n">
-        <v>970.0546934046018</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2798542473295</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3048.550120319547</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.487232975976</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524786</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>899.4646521960087</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>899.4646521960087</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.6720730524786</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436271</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,28 +5530,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803939</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>634.560372056552</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.9192356072725</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>815.9830526793656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>665.8664132670299</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>517.9533196846368</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>371.0633721867264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072725</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2796.247839534409</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>2627.311656606502</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2627.311656606502</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2479.398563024109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2479.398563024109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024109</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866307</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>4259.855319304846</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>3970.780092649044</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3716.095604443157</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3426.678434406196</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3198.688883508179</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>2977.896304364649</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979687</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.169680383432</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.485192177545</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.48117232036623</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.6104454096913</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T22" t="n">
-        <v>38.13892827624196</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.00892946589931</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1352912260285279</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>106.4657939283491</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>735581.0991961904</v>
+        <v>735581.0991961902</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.609736506</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.801269209172961e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605451</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768774</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768774</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768776</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768801</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26444,10 +26444,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383455</v>
+        <v>-647734.4620383458</v>
       </c>
       <c r="C6" t="n">
         <v>297378.6431180214</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301272</v>
+        <v>500817.3847301274</v>
       </c>
       <c r="E6" t="n">
-        <v>249592.4737834745</v>
+        <v>249245.0945291175</v>
       </c>
       <c r="F6" t="n">
-        <v>575004.9355908292</v>
+        <v>574657.5563364725</v>
       </c>
       <c r="G6" t="n">
-        <v>575004.9355908298</v>
+        <v>574657.5563364727</v>
       </c>
       <c r="H6" t="n">
-        <v>575004.93559083</v>
+        <v>574657.5563364727</v>
       </c>
       <c r="I6" t="n">
-        <v>575004.9355908295</v>
+        <v>574657.5563364729</v>
       </c>
       <c r="J6" t="n">
-        <v>407399.7577808474</v>
+        <v>407052.3785264901</v>
       </c>
       <c r="K6" t="n">
-        <v>525894.8428847754</v>
+        <v>525547.4636304183</v>
       </c>
       <c r="L6" t="n">
-        <v>575004.9355908298</v>
+        <v>574657.5563364726</v>
       </c>
       <c r="M6" t="n">
-        <v>489949.9076553177</v>
+        <v>489602.5284009608</v>
       </c>
       <c r="N6" t="n">
-        <v>575004.9355908299</v>
+        <v>574657.5563364727</v>
       </c>
       <c r="O6" t="n">
-        <v>575004.93559083</v>
+        <v>574657.5563364729</v>
       </c>
       <c r="P6" t="n">
-        <v>575004.93559083</v>
+        <v>574657.5563364727</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.751586511466201e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.751586511466201e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26795,34 +26795,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.816623302254</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>360.2766952373538</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>115.0205513008616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>22.05149380330914</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>17.83120978940542</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2823568080669</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>200.5589397877259</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.55756258639516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>271.2636035596114</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>180.6279978217949</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>216.6388575400838</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.740090779818373e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28143,16 +28143,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.751586511466191e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.751586511466201e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.751586511466201e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.38714966515164e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.392718322726348e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551095</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>531.8166820790237</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741744</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075054</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>393.2623022991496</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>328.5921438716505</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3007462.877590861</v>
+        <v>3009223.407893646</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>4.996196533653728</v>
+        <v>4.996196533652828</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1971464172153</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>347.4416819816021</v>
       </c>
       <c r="C5" t="n">
-        <v>347.4416819816021</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>42.82361902519035</v>
       </c>
       <c r="U7" t="n">
-        <v>85.65289841788693</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.33703994142957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>184.6527153981528</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.276945881932</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C2" t="n">
         <v>136.2302827166252</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4479,34 +4479,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.572515263131</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4567,13 +4567,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4582,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1602.522025839322</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.493512032386</v>
+        <v>1602.522025839322</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.809023826499</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.809023826499</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,22 +5056,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424041</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2077.590354893597</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5889,61 +5889,61 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
         <v>1573.595244679635</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
         <v>776.1751066403293</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,7 +7496,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
         <v>1520.445529061503</v>
@@ -7548,16 +7548,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,28 +7569,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2437.724555511392</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878353</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-4.808016833599672e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.75273492913541</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>735581.0991961902</v>
+        <v>735581.0991961904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768821</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26435,13 +26435,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26450,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647734.4620383458</v>
+        <v>-647734.4620383452</v>
       </c>
       <c r="C6" t="n">
-        <v>297378.6431180214</v>
+        <v>297378.6431180213</v>
       </c>
       <c r="D6" t="n">
-        <v>500817.3847301274</v>
+        <v>500817.3847301276</v>
       </c>
       <c r="E6" t="n">
-        <v>249245.0945291175</v>
+        <v>249557.7358580383</v>
       </c>
       <c r="F6" t="n">
-        <v>574657.5563364725</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="G6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653939</v>
       </c>
       <c r="H6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="I6" t="n">
-        <v>574657.5563364729</v>
+        <v>574970.1976653939</v>
       </c>
       <c r="J6" t="n">
-        <v>407052.3785264901</v>
+        <v>407365.0198554114</v>
       </c>
       <c r="K6" t="n">
-        <v>525547.4636304183</v>
+        <v>525860.1049593395</v>
       </c>
       <c r="L6" t="n">
-        <v>574657.5563364726</v>
+        <v>574970.1976653941</v>
       </c>
       <c r="M6" t="n">
-        <v>489602.5284009608</v>
+        <v>489915.169729882</v>
       </c>
       <c r="N6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653942</v>
       </c>
       <c r="O6" t="n">
-        <v>574657.5563364729</v>
+        <v>574970.1976653944</v>
       </c>
       <c r="P6" t="n">
-        <v>574657.5563364727</v>
+        <v>574970.1976653939</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>360.2766952373538</v>
+        <v>360.2766952373547</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>115.3258519193757</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>35.29215968187845</v>
       </c>
       <c r="C5" t="n">
-        <v>17.83120978940542</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>176.7253302509789</v>
       </c>
       <c r="U7" t="n">
-        <v>200.5589397877259</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>75.90496054965148</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31998,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313201</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
